--- a/CookApss_CodingTest/Assets/03.Resources/BattleEntityDataTable.xlsx
+++ b/CookApss_CodingTest/Assets/03.Resources/BattleEntityDataTable.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CookAppsCodingTest\CookApss_CodingTest\Assets\03.Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shingu-103\Documents\GitHub\CookAppsCodingTest\CookApss_CodingTest\Assets\03.Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6076DCB4-8404-41A9-81D6-B5EF1F5F52B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
-    <sheet name="zero" sheetId="1" r:id="rId1"/>
-    <sheet name="one" sheetId="2" r:id="rId2"/>
-    <sheet name="two" sheetId="3" r:id="rId3"/>
-    <sheet name="three" sheetId="4" r:id="rId4"/>
-    <sheet name="four" sheetId="5" r:id="rId5"/>
-    <sheet name="five" sheetId="6" r:id="rId6"/>
+    <sheet name="warrior" sheetId="1" r:id="rId1"/>
+    <sheet name="wizard" sheetId="2" r:id="rId2"/>
+    <sheet name="tank" sheetId="3" r:id="rId3"/>
+    <sheet name="enemyOne" sheetId="4" r:id="rId4"/>
+    <sheet name="enemyTwo" sheetId="5" r:id="rId5"/>
+    <sheet name="enemyThree" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="16">
   <si>
     <t>canAttackDistance</t>
   </si>
@@ -39,31 +38,13 @@
     <t>maxHP</t>
   </si>
   <si>
-    <t>Three</t>
-  </si>
-  <si>
-    <t>Zero</t>
-  </si>
-  <si>
-    <t>Four</t>
-  </si>
-  <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>Five</t>
   </si>
   <si>
     <t>level</t>
   </si>
   <si>
-    <t>Two</t>
-  </si>
-  <si>
     <t>UID</t>
-  </si>
-  <si>
-    <t>One</t>
   </si>
   <si>
     <t>skillCooltime</t>
@@ -72,11 +53,86 @@
     <t>attackCycle</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>EnemyThree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>nemyTwo</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyTwo</t>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>nemyOne</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ank</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>izard</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warrior</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,7 +175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -127,6 +183,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,12 +496,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -454,22 +513,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -478,15 +537,15 @@
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -514,8 +573,8 @@
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -543,8 +602,8 @@
       <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -572,8 +631,8 @@
       <c r="A5" s="1">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -601,8 +660,8 @@
       <c r="A6" s="1">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -650,12 +709,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -665,22 +724,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -689,15 +748,15 @@
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -725,8 +784,8 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -754,8 +813,8 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -783,8 +842,8 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -812,8 +871,8 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -861,12 +920,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -876,22 +935,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -900,15 +959,15 @@
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -936,8 +995,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -965,8 +1024,8 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -994,8 +1053,8 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -1023,8 +1082,8 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -1072,12 +1131,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1087,22 +1146,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -1111,15 +1170,15 @@
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1147,8 +1206,8 @@
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -1176,8 +1235,8 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1205,8 +1264,8 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -1234,8 +1293,8 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -1283,12 +1342,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1298,22 +1357,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -1322,15 +1381,15 @@
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1359,7 +1418,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -1388,7 +1447,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1417,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -1446,7 +1505,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -1494,12 +1553,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1512,22 +1571,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -1536,15 +1595,15 @@
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1572,8 +1631,8 @@
       <c r="A3" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -1601,8 +1660,8 @@
       <c r="A4" s="1">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1630,8 +1689,8 @@
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -1659,8 +1718,8 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -1687,6 +1746,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CookApss_CodingTest/Assets/03.Resources/BattleEntityDataTable.xlsx
+++ b/CookApss_CodingTest/Assets/03.Resources/BattleEntityDataTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shingu-103\Documents\GitHub\CookAppsCodingTest\CookApss_CodingTest\Assets\03.Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CookAppsCodingTest\CookApss_CodingTest\Assets\03.Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF8BC92-B207-4914-9347-CB55B9D0FA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="warrior" sheetId="1" r:id="rId1"/>
@@ -132,7 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -496,12 +497,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -709,12 +710,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -768,7 +769,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1">
         <v>5</v>
@@ -797,7 +798,7 @@
         <v>110</v>
       </c>
       <c r="F3" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1">
         <v>5</v>
@@ -826,7 +827,7 @@
         <v>120</v>
       </c>
       <c r="F4" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1">
         <v>5</v>
@@ -855,7 +856,7 @@
         <v>130</v>
       </c>
       <c r="F5" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1">
         <v>5</v>
@@ -884,7 +885,7 @@
         <v>140</v>
       </c>
       <c r="F6" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -920,12 +921,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -979,7 +980,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1">
         <v>5</v>
@@ -1008,7 +1009,7 @@
         <v>50</v>
       </c>
       <c r="F3" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1">
         <v>5</v>
@@ -1037,7 +1038,7 @@
         <v>75</v>
       </c>
       <c r="F4" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1">
         <v>5</v>
@@ -1066,7 +1067,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1">
         <v>5</v>
@@ -1095,7 +1096,7 @@
         <v>125</v>
       </c>
       <c r="F6" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -1131,7 +1132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -1342,7 +1343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -1553,11 +1554,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
